--- a/Data/Program output/Sample Averages.xlsx
+++ b/Data/Program output/Sample Averages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b08f9f412f899893/Documents/GitHub/dual_deflection/Data/Program output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_2BB1D69C5B30D66DFF392911599330726F11FDF9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{712FE87F-E9CB-4E29-B02C-F916EC1D4498}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_2BB1D69C5B70555FF71A2511599330726F11FDF9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3ABF92EF-4445-4BEA-B870-E20C4350C9B2}"/>
   <bookViews>
-    <workbookView xWindow="30630" yWindow="0" windowWidth="26970" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38205" yWindow="0" windowWidth="19395" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,12 +148,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,38 +463,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -496,27 +504,27 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>5670022.1242186846</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>887441.74211383506</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>0.15651468771581251</v>
       </c>
       <c r="F2">
@@ -525,31 +533,27 @@
       <c r="G2">
         <v>2.140335449278655</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="5">
         <v>0.25984672961581212</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <f>AVERAGE(F2:F4)</f>
-        <v>8.0414733225028385</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>16646611.262245931</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>2720299.2568433732</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>0.16341459615945619</v>
       </c>
       <c r="F3">
@@ -558,27 +562,27 @@
       <c r="G3">
         <v>0.25544809781263361</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="5">
         <v>2.8253681510349009E-2</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>35850155.406290203</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>4695291.9787309691</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>0.1309699198098076</v>
       </c>
       <c r="F4">
@@ -587,27 +591,27 @@
       <c r="G4">
         <v>1.041996919820352</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="5">
         <v>0.15219915776605289</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>61580907.045995392</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>23689559.019758001</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>0.38468999818505478</v>
       </c>
       <c r="F5">
@@ -616,222 +620,197 @@
       <c r="G5">
         <v>0.81618249769822226</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
         <v>7.2500888752347697E-2</v>
       </c>
       <c r="I5">
         <v>15</v>
       </c>
-      <c r="J5">
-        <f>AVERAGE(F5:F7)</f>
-        <v>10.22819720588523</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
-        <v>70415083.38011992</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3827983.429547539</v>
-      </c>
-      <c r="E6">
-        <v>5.4363117187308227E-2</v>
+      <c r="C6" s="3">
+        <v>65122301.895282112</v>
+      </c>
+      <c r="D6" s="3">
+        <v>35823736.982095897</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.55009936595455644</v>
       </c>
       <c r="F6">
-        <v>10.32701744811839</v>
+        <v>9.1000225485333015</v>
       </c>
       <c r="G6">
-        <v>1.14362991331766</v>
-      </c>
-      <c r="H6">
-        <v>0.11074154944185099</v>
+        <v>0.55845742061118042</v>
+      </c>
+      <c r="H6" s="5">
+        <v>6.136879525657768E-2</v>
       </c>
       <c r="I6">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>8</v>
       </c>
-      <c r="C7" s="2">
-        <v>65122301.895282112</v>
-      </c>
-      <c r="D7" s="2">
-        <v>35823736.982095897</v>
-      </c>
-      <c r="E7">
-        <v>0.55009936595455644</v>
+      <c r="C7" s="3">
+        <v>70415083.38011992</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3827983.429547539</v>
+      </c>
+      <c r="E7" s="5">
+        <v>5.4363117187308227E-2</v>
       </c>
       <c r="F7">
-        <v>9.1000225485333015</v>
+        <v>10.32701744811839</v>
       </c>
       <c r="G7">
-        <v>0.55845742061118042</v>
-      </c>
-      <c r="H7">
-        <v>6.136879525657768E-2</v>
+        <v>1.14362991331766</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.11074154944185099</v>
       </c>
       <c r="I7">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2">
-        <v>166737196.14344811</v>
-      </c>
-      <c r="D8" s="2">
-        <v>88529877.954718113</v>
-      </c>
-      <c r="E8">
-        <v>0.53095458003596074</v>
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>128240160.8956127</v>
+      </c>
+      <c r="D8" s="3">
+        <v>7686908.8023407906</v>
+      </c>
+      <c r="E8" s="5">
+        <v>5.9941509341975327E-2</v>
       </c>
       <c r="F8">
-        <v>22.68437225045486</v>
+        <v>24.130126535303781</v>
       </c>
       <c r="G8">
-        <v>1.165751087303031</v>
-      </c>
-      <c r="H8">
-        <v>5.1390052783129393E-2</v>
+        <v>1.501931733750699</v>
+      </c>
+      <c r="H8" s="5">
+        <v>6.2243011098731107E-2</v>
       </c>
       <c r="I8">
         <v>30</v>
       </c>
-      <c r="J8">
-        <f>AVERAGE(F8:F11)</f>
-        <v>20.562780493016664</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1651103778.6977079</v>
-      </c>
-      <c r="D9" s="2">
-        <v>79772942.404015392</v>
-      </c>
-      <c r="E9">
-        <v>4.8314917228846482E-2</v>
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>150850650.06955171</v>
+      </c>
+      <c r="D9" s="3">
+        <v>55951163.210728057</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.37090435596353749</v>
       </c>
       <c r="F9">
-        <v>19.456664935064939</v>
+        <v>15.97995825124308</v>
       </c>
       <c r="G9">
-        <v>2.0011411564518138</v>
-      </c>
-      <c r="H9">
-        <v>0.10285119074263049</v>
+        <v>1.7471147076706239</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.1093316190319031</v>
       </c>
       <c r="I9">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2">
-        <v>128240160.8956127</v>
-      </c>
-      <c r="D10" s="2">
-        <v>7686908.8023407906</v>
-      </c>
-      <c r="E10">
-        <v>5.9941509341975327E-2</v>
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>166737196.14344811</v>
+      </c>
+      <c r="D10" s="3">
+        <v>88529877.954718113</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.53095458003596074</v>
       </c>
       <c r="F10">
-        <v>24.130126535303781</v>
+        <v>22.68437225045486</v>
       </c>
       <c r="G10">
-        <v>1.501931733750699</v>
-      </c>
-      <c r="H10">
-        <v>6.2243011098731107E-2</v>
+        <v>1.165751087303031</v>
+      </c>
+      <c r="H10" s="5">
+        <v>5.1390052783129393E-2</v>
       </c>
       <c r="I10">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2">
-        <v>150850650.06955171</v>
-      </c>
-      <c r="D11" s="2">
-        <v>55951163.210728057</v>
-      </c>
-      <c r="E11">
-        <v>0.37090435596353749</v>
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1651103778.6977079</v>
+      </c>
+      <c r="D11" s="3">
+        <v>79772942.404015392</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4.8314917228846482E-2</v>
       </c>
       <c r="F11">
-        <v>15.97995825124308</v>
+        <v>19.456664935064939</v>
       </c>
       <c r="G11">
-        <v>1.7471147076706239</v>
-      </c>
-      <c r="H11">
-        <v>0.1093316190319031</v>
+        <v>2.0011411564518138</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.10285119074263049</v>
       </c>
       <c r="I11">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31" s="2">
-        <v>1900000000</v>
-      </c>
-      <c r="D31">
-        <f>C31/C32</f>
-        <v>487.17948717948718</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32" s="2">
-        <v>3900000</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="2">
-        <v>165000000000</v>
-      </c>
-      <c r="D33">
-        <f>C33/C32</f>
-        <v>42307.692307692305</v>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="5">
+        <f>C11/C10</f>
+        <v>9.9024321920180469</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I11" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I11">
-      <sortCondition ref="I1:I11"/>
+      <sortCondition ref="C1:C11"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
